--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-462814.3527215198</v>
+        <v>-465042.1669085092</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7229882.073571227</v>
+        <v>7168630.856230429</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13617675.95840635</v>
+        <v>13627113.48433195</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>191.3529277537647</v>
+        <v>30.82243135602165</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0192826803616</v>
+        <v>14.02306855841141</v>
       </c>
       <c r="H2" t="n">
-        <v>326.3306202891435</v>
+        <v>326.3693924127212</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.2472981763116</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>179.7733425388452</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>112.1191350764765</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2429765210546</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>131.5381046000976</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6568082862844</v>
+        <v>49.56141160323027</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6032821882882</v>
+        <v>105.6228454452419</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>65.82310855016702</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.52164616243611</v>
+        <v>57.64741249551351</v>
       </c>
       <c r="S3" t="n">
-        <v>158.9278549030377</v>
+        <v>158.965479968069</v>
       </c>
       <c r="T3" t="n">
-        <v>197.3968100198428</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8962038653876</v>
+        <v>225.8963371300807</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>195.0996058130809</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>87.42262315123794</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>254.289360306988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,7 +944,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>293.9927042688457</v>
+        <v>123.2558368419821</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1023,7 +1023,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>162.3364906735235</v>
+        <v>234.3107022885812</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>297.5388935063471</v>
       </c>
       <c r="H8" t="n">
-        <v>17.23430169187254</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>35.85115782931122</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>213.6743229269904</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>186.8748207145265</v>
       </c>
       <c r="X13" t="n">
-        <v>142.3844270995955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>65.30371978353448</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>71.79193711918228</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>66.41180510878624</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314408</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>261.4261568447059</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>39.50038062819568</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>138.5363395293741</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.82697502375959</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>125.3146872343259</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>89.90567558141956</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>270.3808622796248</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>15.42290135054944</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,19 +3241,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>155.3817261430853</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>341.1569118905547</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>323.6959619980817</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>313.1061118477571</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>340.3534402993359</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>365.2991159687856</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>369.3447958805276</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>253.0308346143946</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>67.61083201525</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>162.3410403666943</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>209.4182421859761</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>286.1753286972091</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>307.6640389444872</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>328.1541709055432</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>344.6610088831277</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>138.2550504090115</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>125.669891325702</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>107.0385432452865</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797663</v>
+        <v>104.8570328736433</v>
       </c>
       <c r="F37" t="n">
-        <v>98.4459114043387</v>
+        <v>103.8441182500054</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>50.5267993568432</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572824</v>
+        <v>103.1780851413949</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>47.35522289712149</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>148.1920955585161</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>177.9720195032434</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>244.634908432687</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>210.5607135509022</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>244.9460685636652</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>184.1327256161113</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>177.007723579169</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>341.1569118905547</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>323.6959619980817</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>313.1061118477571</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>340.3534402993359</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>365.2991159687856</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>369.3447958805276</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687278</v>
+        <v>253.0308346143946</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958322</v>
+        <v>67.61083201525</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210275</v>
+        <v>162.3410403666943</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>209.4182421859761</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>286.1753286972091</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>307.664038944486</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>328.1541709055432</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.2628020374613</v>
+        <v>344.6610088831277</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>138.2550504090115</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>125.669891325702</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996197</v>
+        <v>107.0385432452865</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797656</v>
+        <v>104.8570328736433</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433863</v>
+        <v>103.8441182500054</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>124.4488784861024</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572817</v>
+        <v>103.1780851413949</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124548</v>
+        <v>54.77549063691226</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145609</v>
+        <v>47.35522289712149</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>148.1920955585161</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>177.9720195032434</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>244.634908432687</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>210.5607135509022</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>116.2484987974937</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>184.1327256161113</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>177.007723579169</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687278</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958322</v>
+        <v>67.61083201524988</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210275</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>307.6640389444877</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996197</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797656</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433863</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>43.1065316170553</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572817</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124548</v>
+        <v>54.77549063691215</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145609</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870202</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704445</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.758705044888</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2977551524149</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687278</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958322</v>
+        <v>67.61083201524988</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210275</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>307.6640389444871</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.262802037461</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996197</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797656</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433863</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572817</v>
+        <v>29.25600601213868</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124685</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145472</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870202</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704445</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1400.60769710882</v>
+        <v>1157.558556773908</v>
       </c>
       <c r="C2" t="n">
-        <v>1400.60769710882</v>
+        <v>788.5960398334967</v>
       </c>
       <c r="D2" t="n">
-        <v>1400.60769710882</v>
+        <v>430.3303412267462</v>
       </c>
       <c r="E2" t="n">
-        <v>1207.321911498957</v>
+        <v>399.1965721802596</v>
       </c>
       <c r="F2" t="n">
-        <v>796.336006709349</v>
+        <v>392.2510714310562</v>
       </c>
       <c r="G2" t="n">
-        <v>378.1347110726202</v>
+        <v>378.0863557154891</v>
       </c>
       <c r="H2" t="n">
-        <v>48.50782189166709</v>
+        <v>48.42030277334644</v>
       </c>
       <c r="I2" t="n">
-        <v>48.50782189166709</v>
+        <v>48.42030277334644</v>
       </c>
       <c r="J2" t="n">
-        <v>144.5203339656257</v>
+        <v>144.114706396846</v>
       </c>
       <c r="K2" t="n">
-        <v>409.1630051359739</v>
+        <v>408.2806154610648</v>
       </c>
       <c r="L2" t="n">
-        <v>789.7522675707596</v>
+        <v>788.2784123450077</v>
       </c>
       <c r="M2" t="n">
-        <v>1229.837699202514</v>
+        <v>1227.705724588239</v>
       </c>
       <c r="N2" t="n">
-        <v>1662.412175667411</v>
+        <v>1659.611432604863</v>
       </c>
       <c r="O2" t="n">
-        <v>2025.692349594571</v>
+        <v>2022.26010745036</v>
       </c>
       <c r="P2" t="n">
-        <v>2298.069190349998</v>
+        <v>2294.097978349835</v>
       </c>
       <c r="Q2" t="n">
-        <v>2425.391094583355</v>
+        <v>2421.015138667322</v>
       </c>
       <c r="R2" t="n">
-        <v>2355.444328748697</v>
+        <v>2421.015138667322</v>
       </c>
       <c r="S2" t="n">
-        <v>2173.855093860974</v>
+        <v>2421.015138667322</v>
       </c>
       <c r="T2" t="n">
-        <v>2173.855093860974</v>
+        <v>2307.763487074922</v>
       </c>
       <c r="U2" t="n">
-        <v>1920.074309496272</v>
+        <v>2307.763487074922</v>
       </c>
       <c r="V2" t="n">
-        <v>1920.074309496272</v>
+        <v>2307.763487074922</v>
       </c>
       <c r="W2" t="n">
-        <v>1920.074309496272</v>
+        <v>2307.763487074922</v>
       </c>
       <c r="X2" t="n">
-        <v>1787.207537172942</v>
+        <v>1934.297728813842</v>
       </c>
       <c r="Y2" t="n">
-        <v>1787.207537172942</v>
+        <v>1544.15839683803</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>763.1369809026884</v>
+        <v>900.8195179252439</v>
       </c>
       <c r="C3" t="n">
-        <v>588.6839516215614</v>
+        <v>726.3664886441169</v>
       </c>
       <c r="D3" t="n">
-        <v>439.7495419603101</v>
+        <v>577.4320789828656</v>
       </c>
       <c r="E3" t="n">
-        <v>439.7495419603101</v>
+        <v>418.1946239774101</v>
       </c>
       <c r="F3" t="n">
-        <v>293.2149839871951</v>
+        <v>271.6600660042951</v>
       </c>
       <c r="G3" t="n">
-        <v>155.177803900039</v>
+        <v>221.5980340818403</v>
       </c>
       <c r="H3" t="n">
-        <v>48.50782189166709</v>
+        <v>114.9082912078586</v>
       </c>
       <c r="I3" t="n">
-        <v>48.50782189166709</v>
+        <v>48.42030277334644</v>
       </c>
       <c r="J3" t="n">
-        <v>111.9988366483581</v>
+        <v>111.721854316205</v>
       </c>
       <c r="K3" t="n">
-        <v>154.7436743988952</v>
+        <v>152.9488634213945</v>
       </c>
       <c r="L3" t="n">
-        <v>532.3189194019326</v>
+        <v>530.0886886945783</v>
       </c>
       <c r="M3" t="n">
-        <v>1024.910642887011</v>
+        <v>1022.17229789234</v>
       </c>
       <c r="N3" t="n">
-        <v>1546.246816927778</v>
+        <v>1542.986909372545</v>
       </c>
       <c r="O3" t="n">
-        <v>1956.751886635201</v>
+        <v>1953.014851232572</v>
       </c>
       <c r="P3" t="n">
-        <v>2269.215328164239</v>
+        <v>2265.095355599739</v>
       </c>
       <c r="Q3" t="n">
-        <v>2425.391094583355</v>
+        <v>2421.015138667322</v>
       </c>
       <c r="R3" t="n">
-        <v>2367.288421692005</v>
+        <v>2362.785429075894</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.75523492126</v>
+        <v>2202.214237188956</v>
       </c>
       <c r="T3" t="n">
-        <v>2007.364517729499</v>
+        <v>2202.214237188956</v>
       </c>
       <c r="U3" t="n">
-        <v>1779.186534027088</v>
+        <v>1974.036118875743</v>
       </c>
       <c r="V3" t="n">
-        <v>1544.034425795345</v>
+        <v>1738.884010644</v>
       </c>
       <c r="W3" t="n">
-        <v>1346.964116893243</v>
+        <v>1484.646653915799</v>
       </c>
       <c r="X3" t="n">
-        <v>1139.11261668771</v>
+        <v>1276.795153710266</v>
       </c>
       <c r="Y3" t="n">
-        <v>931.3523179227564</v>
+        <v>1069.034854945312</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>453.6627783527125</v>
+        <v>195.3102502712568</v>
       </c>
       <c r="C4" t="n">
-        <v>284.7265954248056</v>
+        <v>195.3102502712568</v>
       </c>
       <c r="D4" t="n">
-        <v>196.4209154740602</v>
+        <v>195.3102502712568</v>
       </c>
       <c r="E4" t="n">
-        <v>48.50782189166709</v>
+        <v>195.3102502712568</v>
       </c>
       <c r="F4" t="n">
-        <v>48.50782189166709</v>
+        <v>48.42030277334644</v>
       </c>
       <c r="G4" t="n">
-        <v>48.50782189166709</v>
+        <v>48.42030277334644</v>
       </c>
       <c r="H4" t="n">
-        <v>48.50782189166709</v>
+        <v>48.42030277334644</v>
       </c>
       <c r="I4" t="n">
-        <v>48.50782189166709</v>
+        <v>48.42030277334644</v>
       </c>
       <c r="J4" t="n">
-        <v>48.50782189166709</v>
+        <v>48.42030277334644</v>
       </c>
       <c r="K4" t="n">
-        <v>92.67960950952711</v>
+        <v>92.39676175255661</v>
       </c>
       <c r="L4" t="n">
-        <v>204.7307244491467</v>
+        <v>204.1979232840009</v>
       </c>
       <c r="M4" t="n">
-        <v>333.2620375218792</v>
+        <v>332.4656955338664</v>
       </c>
       <c r="N4" t="n">
-        <v>464.1717796732054</v>
+        <v>463.1181632740509</v>
       </c>
       <c r="O4" t="n">
-        <v>569.071819391221</v>
+        <v>567.7805684323068</v>
       </c>
       <c r="P4" t="n">
-        <v>635.3112431829522</v>
+        <v>633.8166548055249</v>
       </c>
       <c r="Q4" t="n">
-        <v>635.3112431829522</v>
+        <v>633.8166548055249</v>
       </c>
       <c r="R4" t="n">
-        <v>635.3112431829522</v>
+        <v>633.8166548055249</v>
       </c>
       <c r="S4" t="n">
-        <v>635.3112431829522</v>
+        <v>633.8166548055249</v>
       </c>
       <c r="T4" t="n">
-        <v>635.3112431829522</v>
+        <v>633.8166548055249</v>
       </c>
       <c r="U4" t="n">
-        <v>635.3112431829522</v>
+        <v>376.9587151014965</v>
       </c>
       <c r="V4" t="n">
-        <v>635.3112431829522</v>
+        <v>376.9587151014965</v>
       </c>
       <c r="W4" t="n">
-        <v>635.3112431829522</v>
+        <v>376.9587151014965</v>
       </c>
       <c r="X4" t="n">
-        <v>635.3112431829522</v>
+        <v>376.9587151014965</v>
       </c>
       <c r="Y4" t="n">
-        <v>635.3112431829522</v>
+        <v>376.9587151014965</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1795.460519632919</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="X5" t="n">
-        <v>1795.460519632919</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y5" t="n">
-        <v>1405.321187657107</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,16 +4671,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U7" t="n">
-        <v>564.1527310008552</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="V7" t="n">
-        <v>564.1527310008552</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2013.317548404538</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="C8" t="n">
-        <v>1644.355031464126</v>
+        <v>1151.261476083314</v>
       </c>
       <c r="D8" t="n">
-        <v>1286.089332857375</v>
+        <v>1151.261476083314</v>
       </c>
       <c r="E8" t="n">
-        <v>900.3010802591311</v>
+        <v>765.4732234850701</v>
       </c>
       <c r="F8" t="n">
-        <v>489.3151754695236</v>
+        <v>354.4873186954625</v>
       </c>
       <c r="G8" t="n">
-        <v>71.35136736771045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.317548404538</v>
+        <v>1520.223993023726</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>477.6272702879189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>477.6272702879189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5018,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5054,31 +5054,31 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W13" t="n">
-        <v>1666.926296067743</v>
+        <v>1486.06467952287</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>1258.075128624852</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>1037.282549481322</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5291,37 +5291,37 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>482.67092677278</v>
+        <v>623.3575047549123</v>
       </c>
       <c r="C16" t="n">
-        <v>482.67092677278</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="D16" t="n">
-        <v>482.67092677278</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5434,52 +5434,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953315</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442079</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.230648292704</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892253</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598118</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518531</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952191</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931532</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.657581931532</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057175</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.870226851288</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W16" t="n">
-        <v>931.4530568143275</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="X16" t="n">
-        <v>703.4635059163102</v>
+        <v>1025.798548728682</v>
       </c>
       <c r="Y16" t="n">
-        <v>482.67092677278</v>
+        <v>805.005969585152</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468568</v>
@@ -5592,19 +5592,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,7 +5622,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5631,13 +5631,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>776.4995292919569</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C19" t="n">
-        <v>607.5633463640501</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D19" t="n">
-        <v>457.4467069517143</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>309.5336133693212</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>162.6436658714108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>162.6436658714108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5674,16 +5674,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.657581931531</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U19" t="n">
-        <v>1475.554715057175</v>
+        <v>1188.993684162922</v>
       </c>
       <c r="V19" t="n">
-        <v>1475.554715057175</v>
+        <v>934.3091959570352</v>
       </c>
       <c r="W19" t="n">
-        <v>1186.137545020214</v>
+        <v>644.8920259200746</v>
       </c>
       <c r="X19" t="n">
-        <v>958.1479941221967</v>
+        <v>644.8920259200746</v>
       </c>
       <c r="Y19" t="n">
-        <v>958.1479941221967</v>
+        <v>424.0994467765445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5835,7 +5835,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>472.0994283734972</v>
+        <v>806.069814334827</v>
       </c>
       <c r="C22" t="n">
-        <v>303.1632454455903</v>
+        <v>637.1336314069201</v>
       </c>
       <c r="D22" t="n">
-        <v>303.1632454455903</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E22" t="n">
-        <v>303.1632454455903</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F22" t="n">
-        <v>303.1632454455903</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G22" t="n">
-        <v>135.4604088203093</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5935,25 +5935,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.957642384228</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="W22" t="n">
-        <v>874.540472347267</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="X22" t="n">
-        <v>874.540472347267</v>
+        <v>1127.653975659384</v>
       </c>
       <c r="Y22" t="n">
-        <v>653.7478932037369</v>
+        <v>987.7182791650667</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.8310435707792</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8948606428723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D25" t="n">
         <v>241.7782212305366</v>
@@ -6139,16 +6139,16 @@
         <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689057</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814701</v>
+        <v>1416.310474345171</v>
       </c>
       <c r="V25" t="n">
-        <v>1385.724257814701</v>
+        <v>1161.625986139284</v>
       </c>
       <c r="W25" t="n">
-        <v>1096.30708777774</v>
+        <v>872.2088161023238</v>
       </c>
       <c r="X25" t="n">
-        <v>868.3175368797231</v>
+        <v>644.2192652043065</v>
       </c>
       <c r="Y25" t="n">
-        <v>647.524957736193</v>
+        <v>423.4266860607763</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K26" t="n">
-        <v>932.5990189467745</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1797.117834600129</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272054</v>
+        <v>2593.249184644076</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330836</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320242</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6409,10 +6409,10 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
         <v>1270.093287563029</v>
@@ -6427,7 +6427,7 @@
         <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="29">
@@ -6464,16 +6464,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>818.2062848686776</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1682.725100522032</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6540,10 +6540,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1584.013310970452</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1584.013310970452</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1329.328822764566</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>1039.911652727605</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>811.9221018295875</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>432.2000540015823</v>
+        <v>278.8425593065537</v>
       </c>
       <c r="C34" t="n">
         <v>263.2638710736754</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.939727972687</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1131.2552397668</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>841.8380697298394</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X34" t="n">
-        <v>613.848518831822</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y34" t="n">
-        <v>613.848518831822</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2067.381871868335</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1740.416253688455</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1424.147453842235</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1080.356100004522</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>711.3670939754456</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>338.2915425809744</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>82.70484095027271</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557146</v>
+        <v>438.9896209296511</v>
       </c>
       <c r="K35" t="n">
-        <v>603.8454215455611</v>
+        <v>772.8089946194975</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.87963479397</v>
+        <v>1256.049242716598</v>
       </c>
       <c r="M35" t="n">
-        <v>1588.411539465894</v>
+        <v>1789.581147388522</v>
       </c>
       <c r="N35" t="n">
-        <v>2475.30339983534</v>
+        <v>2336.359964447305</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164795</v>
+        <v>2839.332435326642</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521973</v>
+        <v>3552.687522773587</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>4011.165725282575</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4135.24204751363</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>4066.948277801257</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3902.96742894601</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3691.433850980377</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3402.367862397338</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3091.596105887755</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2760.127246387206</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2411.984813171925</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456143</v>
+        <v>957.7365789991978</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644873</v>
+        <v>783.2835497180708</v>
       </c>
       <c r="D36" t="n">
-        <v>632.7912160032361</v>
+        <v>634.3491400568196</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977806</v>
+        <v>475.111685051364</v>
       </c>
       <c r="F36" t="n">
-        <v>327.0192030246656</v>
+        <v>328.577127078249</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572837</v>
+        <v>192.2140269108671</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951512</v>
+        <v>101.7121325487346</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>176.38211044089</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>414.6463094212371</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>781.3444697339025</v>
       </c>
       <c r="M36" t="n">
-        <v>1227.062870902635</v>
+        <v>1228.620794956219</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1702.143838510673</v>
       </c>
       <c r="O36" t="n">
-        <v>2111.547193875144</v>
+        <v>2113.105117928728</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2423.604709404831</v>
       </c>
       <c r="Q36" t="n">
-        <v>2579.688342997847</v>
+        <v>2581.246267051431</v>
       </c>
       <c r="R36" t="n">
-        <v>2579.543989590362</v>
+        <v>2581.101913643946</v>
       </c>
       <c r="S36" t="n">
-        <v>2450.106103083842</v>
+        <v>2451.664027137426</v>
       </c>
       <c r="T36" t="n">
-        <v>2257.463102761698</v>
+        <v>2259.021026815281</v>
       </c>
       <c r="U36" t="n">
-        <v>2029.395255896113</v>
+        <v>2030.953179949697</v>
       </c>
       <c r="V36" t="n">
-        <v>1794.243147664371</v>
+        <v>1795.801071717954</v>
       </c>
       <c r="W36" t="n">
-        <v>1540.005790936169</v>
+        <v>1541.563714989752</v>
       </c>
       <c r="X36" t="n">
-        <v>1332.154290730636</v>
+        <v>1333.71221478422</v>
       </c>
       <c r="Y36" t="n">
-        <v>1124.393991965682</v>
+        <v>1125.951916019266</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697998</v>
+        <v>683.8305684178235</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899661</v>
+        <v>556.8912842504478</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257036</v>
+        <v>448.7715435986432</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913838</v>
+        <v>342.8553487767813</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415468</v>
+        <v>237.9623000394021</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>186.9251289718837</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960313</v>
+        <v>168.9886338724048</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>414.1369772964777</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>771.8579362201704</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1157.176142294916</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308444</v>
+        <v>1539.745679475977</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481264</v>
+        <v>1880.236438871587</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2154.005099780443</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2272.776556408154</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2224.942997926213</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2075.254012513571</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1895.484295843628</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1648.378327729803</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386254</v>
+        <v>1435.690738284447</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297367</v>
+        <v>1188.270467008017</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1002.277814870531</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519661</v>
+        <v>823.4821344875321</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2067.381871868336</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1740.416253688456</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1424.147453842236</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1080.356100004523</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>711.3670939754468</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>338.2915425809744</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>82.70484095027273</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J38" t="n">
-        <v>390.976215743484</v>
+        <v>438.9896209296511</v>
       </c>
       <c r="K38" t="n">
-        <v>1045.699547878784</v>
+        <v>920.3029889063162</v>
       </c>
       <c r="L38" t="n">
-        <v>1496.733761127192</v>
+        <v>1784.821804559671</v>
       </c>
       <c r="M38" t="n">
-        <v>2030.265665799117</v>
+        <v>2318.353709231596</v>
       </c>
       <c r="N38" t="n">
-        <v>2577.044482857899</v>
+        <v>2865.132526290378</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737236</v>
+        <v>3368.104997169715</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3762.879363526893</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>4011.165725282575</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4135.24204751363</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>4066.948277801257</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3902.96742894601</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3691.433850980377</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3402.367862397338</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3091.596105887756</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2760.127246387207</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2411.984813171927</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456143</v>
+        <v>957.7365789991978</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644873</v>
+        <v>783.2835497180708</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032361</v>
+        <v>634.3491400568196</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977806</v>
+        <v>475.111685051364</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246656</v>
+        <v>328.577127078249</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572837</v>
+        <v>192.2140269108671</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951512</v>
+        <v>101.7121325487346</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>176.38211044089</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>414.6463094212371</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>781.3444697339025</v>
       </c>
       <c r="M39" t="n">
-        <v>1227.062870902635</v>
+        <v>1228.620794956219</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1702.143838510673</v>
       </c>
       <c r="O39" t="n">
-        <v>2111.547193875144</v>
+        <v>2113.105117928728</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2423.604709404831</v>
       </c>
       <c r="Q39" t="n">
-        <v>2579.688342997847</v>
+        <v>2581.246267051431</v>
       </c>
       <c r="R39" t="n">
-        <v>2579.543989590362</v>
+        <v>2581.101913643946</v>
       </c>
       <c r="S39" t="n">
-        <v>2450.106103083842</v>
+        <v>2451.664027137426</v>
       </c>
       <c r="T39" t="n">
-        <v>2257.463102761698</v>
+        <v>2259.021026815281</v>
       </c>
       <c r="U39" t="n">
-        <v>2029.395255896113</v>
+        <v>2030.953179949697</v>
       </c>
       <c r="V39" t="n">
-        <v>1794.243147664371</v>
+        <v>1795.801071717954</v>
       </c>
       <c r="W39" t="n">
-        <v>1540.005790936169</v>
+        <v>1541.563714989752</v>
       </c>
       <c r="X39" t="n">
-        <v>1332.154290730636</v>
+        <v>1333.71221478422</v>
       </c>
       <c r="Y39" t="n">
-        <v>1124.393991965682</v>
+        <v>1125.951916019266</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697998</v>
+        <v>813.8281136361786</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899661</v>
+        <v>686.8888294688029</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257038</v>
+        <v>578.7690888169983</v>
       </c>
       <c r="E40" t="n">
-        <v>449.484033191384</v>
+        <v>472.8528939951363</v>
       </c>
       <c r="F40" t="n">
-        <v>350.043718641547</v>
+        <v>367.9598452577571</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643393</v>
+        <v>242.2539073930072</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>138.0336193713961</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>168.9886338724048</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973145</v>
+        <v>414.1369772964777</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982173</v>
+        <v>771.8579362201704</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1157.176142294916</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308444</v>
+        <v>1539.745679475977</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481264</v>
+        <v>1880.236438871587</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.85674916733</v>
+        <v>2154.005099780443</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572252</v>
+        <v>2272.776556408154</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277851</v>
+        <v>2224.942997926213</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052751</v>
+        <v>2075.254012513571</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1895.484295843628</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1648.378327729803</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386254</v>
+        <v>1435.690738284447</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1318.268012226372</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1132.275360088886</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519661</v>
+        <v>953.4796797058872</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2067.381871868335</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1740.416253688455</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1424.147453842236</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1080.356100004523</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467791</v>
+        <v>711.3670939754463</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398486</v>
+        <v>338.2915425809741</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>438.9896209296511</v>
       </c>
       <c r="K41" t="n">
-        <v>937.3106675423214</v>
+        <v>772.8089946194975</v>
       </c>
       <c r="L41" t="n">
-        <v>1388.34488079073</v>
+        <v>1223.843207867906</v>
       </c>
       <c r="M41" t="n">
-        <v>1921.876785462655</v>
+        <v>1757.375112539831</v>
       </c>
       <c r="N41" t="n">
-        <v>2468.655602521437</v>
+        <v>2304.153929598613</v>
       </c>
       <c r="O41" t="n">
-        <v>2971.628073400774</v>
+        <v>2839.332435326642</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.98316084772</v>
+        <v>3552.687522773587</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>4011.165725282575</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4135.24204751363</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>4066.948277801257</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3902.96742894601</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3691.433850980378</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3402.367862397338</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3091.596105887755</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2760.127246387206</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2411.984813171925</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>957.7365789991978</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>783.2835497180708</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032361</v>
+        <v>634.3491400568196</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>475.111685051364</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246656</v>
+        <v>328.577127078249</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572837</v>
+        <v>192.2140269108671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951512</v>
+        <v>101.7121325487346</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>176.38211044089</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>414.6463094212371</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>781.3444697339025</v>
       </c>
       <c r="M42" t="n">
-        <v>1227.062870902635</v>
+        <v>1228.620794956219</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1702.143838510673</v>
       </c>
       <c r="O42" t="n">
-        <v>2111.547193875144</v>
+        <v>2113.105117928728</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351247</v>
+        <v>2423.604709404831</v>
       </c>
       <c r="Q42" t="n">
-        <v>2579.688342997847</v>
+        <v>2581.246267051431</v>
       </c>
       <c r="R42" t="n">
-        <v>2579.543989590362</v>
+        <v>2581.101913643946</v>
       </c>
       <c r="S42" t="n">
-        <v>2450.106103083842</v>
+        <v>2451.664027137426</v>
       </c>
       <c r="T42" t="n">
-        <v>2257.463102761698</v>
+        <v>2259.021026815281</v>
       </c>
       <c r="U42" t="n">
-        <v>2029.395255896113</v>
+        <v>2030.953179949697</v>
       </c>
       <c r="V42" t="n">
-        <v>1794.243147664371</v>
+        <v>1795.801071717954</v>
       </c>
       <c r="W42" t="n">
-        <v>1540.005790936169</v>
+        <v>1541.563714989752</v>
       </c>
       <c r="X42" t="n">
-        <v>1332.154290730636</v>
+        <v>1333.71221478422</v>
       </c>
       <c r="Y42" t="n">
-        <v>1124.393991965682</v>
+        <v>1125.951916019266</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697998</v>
+        <v>731.6641268997666</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899661</v>
+        <v>604.724842732391</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257038</v>
+        <v>496.6051020805866</v>
       </c>
       <c r="E43" t="n">
-        <v>449.484033191384</v>
+        <v>390.6889072587247</v>
       </c>
       <c r="F43" t="n">
-        <v>350.043718641547</v>
+        <v>285.7958585213456</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643393</v>
+        <v>242.2539073930069</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>138.033619371396</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>168.9886338724049</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973145</v>
+        <v>414.1369772964779</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982173</v>
+        <v>771.8579362201708</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1157.176142294916</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308444</v>
+        <v>1539.745679475978</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1880.236438871588</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2154.005099780444</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2272.776556408155</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277851</v>
+        <v>2272.776556408155</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052751</v>
+        <v>2123.087570995513</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1943.31785432557</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1696.211886211745</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386254</v>
+        <v>1483.524296766389</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1236.10402548996</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1050.111373352474</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519661</v>
+        <v>871.3156929694751</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2067.381871868336</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1740.416253688456</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1424.147453842236</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1080.356100004523</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467793</v>
+        <v>711.3670939754469</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398491</v>
+        <v>338.2915425809741</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668967</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>271.583971909298</v>
       </c>
       <c r="K44" t="n">
-        <v>937.3106675423214</v>
+        <v>605.4033455991446</v>
       </c>
       <c r="L44" t="n">
-        <v>1388.34488079073</v>
+        <v>1197.637784356247</v>
       </c>
       <c r="M44" t="n">
-        <v>1921.876785462655</v>
+        <v>1731.169689028172</v>
       </c>
       <c r="N44" t="n">
-        <v>2468.655602521437</v>
+        <v>2277.948506086954</v>
       </c>
       <c r="O44" t="n">
-        <v>2971.628073400774</v>
+        <v>3157.913156416409</v>
       </c>
       <c r="P44" t="n">
-        <v>3684.98316084772</v>
+        <v>3552.687522773587</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>4011.165725282575</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4135.24204751363</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>4066.948277801257</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3902.96742894601</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3691.433850980378</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3402.367862397338</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3091.596105887756</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2760.127246387207</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2411.984813171926</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456144</v>
+        <v>957.7365789991978</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644874</v>
+        <v>783.2835497180708</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032362</v>
+        <v>634.3491400568196</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977807</v>
+        <v>475.111685051364</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246657</v>
+        <v>328.577127078249</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572838</v>
+        <v>192.2140269108671</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951513</v>
+        <v>101.7121325487346</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>176.38211044089</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>414.6463094212371</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>781.3444697339025</v>
       </c>
       <c r="M45" t="n">
-        <v>1227.062870902635</v>
+        <v>1228.620794956219</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1702.143838510673</v>
       </c>
       <c r="O45" t="n">
-        <v>2111.547193875144</v>
+        <v>2113.105117928728</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2423.604709404831</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.688342997847</v>
+        <v>2581.246267051431</v>
       </c>
       <c r="R45" t="n">
-        <v>2579.543989590362</v>
+        <v>2581.101913643946</v>
       </c>
       <c r="S45" t="n">
-        <v>2450.106103083842</v>
+        <v>2451.664027137426</v>
       </c>
       <c r="T45" t="n">
-        <v>2257.463102761698</v>
+        <v>2259.021026815281</v>
       </c>
       <c r="U45" t="n">
-        <v>2029.395255896113</v>
+        <v>2030.953179949697</v>
       </c>
       <c r="V45" t="n">
-        <v>1794.243147664371</v>
+        <v>1795.801071717954</v>
       </c>
       <c r="W45" t="n">
-        <v>1540.005790936169</v>
+        <v>1541.563714989752</v>
       </c>
       <c r="X45" t="n">
-        <v>1332.154290730636</v>
+        <v>1333.71221478422</v>
       </c>
       <c r="Y45" t="n">
-        <v>1124.393991965683</v>
+        <v>1125.951916019266</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698011</v>
+        <v>683.8305684178259</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899675</v>
+        <v>556.8912842504503</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257051</v>
+        <v>448.7715435986458</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913854</v>
+        <v>342.855348776784</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415484</v>
+        <v>237.9623000394049</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643407</v>
+        <v>112.2563621746551</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302718</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>168.9886338724049</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973145</v>
+        <v>414.1369772964779</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982173</v>
+        <v>771.8579362201708</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1157.176142294916</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1539.745679475978</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1880.236438871588</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2154.005099780444</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2272.776556408155</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2224.942997926215</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2075.254012513572</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1895.484295843629</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1648.378327729804</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386256</v>
+        <v>1435.690738284449</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1188.270467008019</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1002.277814870533</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519675</v>
+        <v>823.4821344875344</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>70.12961854439581</v>
+        <v>68.923552043738</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>67.53663776704263</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>67.53663776704263</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>67.53663776704263</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,22 +9875,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>317.5146261106144</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>226.7688596193121</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>32.53134833201148</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>343.5485285966295</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>122.1718867553226</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>148.983832612948</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>167.7369666428357</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>32.5313483320117</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>167.7369666428357</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>142.6264904128221</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>190.5774423184971</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>69.4851128383583</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>105.3749636295971</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4152657040901</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1085547440527</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.1371952122442</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-4.342835454180696e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761679</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23476,10 +23476,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>99.64817762206451</v>
       </c>
       <c r="X13" t="n">
-        <v>83.3252282894417</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>101.9431013150934</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>74.64202552738689</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>78.34320980553454</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>24.78568136090695</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>105.2546342861251</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>80.04831382272067</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.00500515817771</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>160.897150971287</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>129.6432736947496</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>151.8239197480784</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25129,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>130.8301120625276</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>73.92207912925919</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>54.77549063691226</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.378452907374594e-12</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>128.6975697661715</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>81.34234686904696</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-1.378452907374594e-12</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>73.92207912925615</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>54.77549063691215</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1193993.926282041</v>
+        <v>1211590.804812618</v>
       </c>
     </row>
     <row r="3">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1184344.307340031</v>
+        <v>1181016.984010851</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1184344.307340031</v>
+        <v>1181016.984010851</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1184344.307340031</v>
+        <v>1181016.984010851</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1184344.307340031</v>
+        <v>1181016.984010851</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>258299.5808509617</v>
+        <v>262314.9450276661</v>
       </c>
       <c r="C2" t="n">
+        <v>266838.5752058921</v>
+      </c>
+      <c r="D2" t="n">
         <v>266838.5752058922</v>
       </c>
-      <c r="D2" t="n">
-        <v>266838.5752058921</v>
-      </c>
       <c r="E2" t="n">
-        <v>258103.1614765391</v>
+        <v>258103.1614765392</v>
       </c>
       <c r="F2" t="n">
         <v>258103.1614765391</v>
@@ -26332,28 +26332,28 @@
         <v>258103.1614765391</v>
       </c>
       <c r="I2" t="n">
-        <v>258103.1614765391</v>
+        <v>258103.161476539</v>
       </c>
       <c r="J2" t="n">
         <v>258103.1614765391</v>
       </c>
       <c r="K2" t="n">
-        <v>258103.1614765392</v>
+        <v>258103.1614765391</v>
       </c>
       <c r="L2" t="n">
-        <v>258103.161476539</v>
+        <v>258103.1614765391</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058921</v>
+        <v>265834.734161716</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058921</v>
+        <v>265834.734161716</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058921</v>
+        <v>265834.7341617158</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058921</v>
+        <v>265834.734161716</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>510843.5836680272</v>
+        <v>509569.4926247423</v>
       </c>
       <c r="C3" t="n">
-        <v>75205.15751768059</v>
+        <v>76416.14103342978</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>158647.256887792</v>
+        <v>158361.0212353682</v>
       </c>
       <c r="K3" t="n">
-        <v>17485.45300661227</v>
+        <v>17767.01076216159</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>122321.7272543793</v>
+        <v>122856.1731009611</v>
       </c>
       <c r="N3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207271.146290036</v>
+        <v>214664.3717002573</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26427,19 +26427,19 @@
         <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="G4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="I4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="H4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25090.72367499384</v>
-      </c>
       <c r="J4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499382</v>
@@ -26448,16 +26448,16 @@
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>62292.78252777374</v>
+        <v>58166.24515109299</v>
       </c>
       <c r="N4" t="n">
-        <v>62292.78252777379</v>
+        <v>58166.24515109304</v>
       </c>
       <c r="O4" t="n">
-        <v>62292.78252777381</v>
+        <v>58166.24515109308</v>
       </c>
       <c r="P4" t="n">
-        <v>62292.78252777381</v>
+        <v>58166.2451510931</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77453.39934293475</v>
+        <v>77366.35494281641</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26488,10 +26488,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>90108.14210422119</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>90108.14210422119</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>90108.14210422119</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>90108.14210422119</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-537268.5484500362</v>
+        <v>-539320.071395367</v>
       </c>
       <c r="C6" t="n">
-        <v>-92290.16630292937</v>
+        <v>-93501.14981867862</v>
       </c>
       <c r="D6" t="n">
-        <v>-17085.00878524882</v>
+        <v>-17085.00878524879</v>
       </c>
       <c r="E6" t="n">
-        <v>-590748.4944455751</v>
+        <v>-590815.6899358006</v>
       </c>
       <c r="F6" t="n">
-        <v>136628.9195478316</v>
+        <v>136561.7240576058</v>
       </c>
       <c r="G6" t="n">
-        <v>136628.9195478317</v>
+        <v>136561.7240576059</v>
       </c>
       <c r="H6" t="n">
-        <v>136628.9195478316</v>
+        <v>136561.724057606</v>
       </c>
       <c r="I6" t="n">
-        <v>136628.9195478318</v>
+        <v>136561.7240576057</v>
       </c>
       <c r="J6" t="n">
-        <v>-22018.33733996037</v>
+        <v>-21799.29717776235</v>
       </c>
       <c r="K6" t="n">
-        <v>119143.4665412194</v>
+        <v>118794.7132954443</v>
       </c>
       <c r="L6" t="n">
-        <v>136628.9195478315</v>
+        <v>136561.7240576058</v>
       </c>
       <c r="M6" t="n">
-        <v>-7153.876251067079</v>
+        <v>-5303.548048745281</v>
       </c>
       <c r="N6" t="n">
-        <v>115167.8510033121</v>
+        <v>117552.6250522157</v>
       </c>
       <c r="O6" t="n">
-        <v>115167.8510033122</v>
+        <v>117552.6250522155</v>
       </c>
       <c r="P6" t="n">
-        <v>115167.8510033122</v>
+        <v>117552.6250522157</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.2593901498971</v>
+        <v>318.3176529850055</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>606.3477736458386</v>
+        <v>605.2537846668305</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1033.810511878408</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1033.810511878408</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1033.810511878408</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1033.810511878408</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.06581410364015e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.2593901498971</v>
+        <v>318.3176529850055</v>
       </c>
       <c r="C3" t="n">
-        <v>58.48427406718963</v>
+        <v>59.42601123208118</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>606.3477736458386</v>
+        <v>605.2537846668305</v>
       </c>
       <c r="C4" t="n">
-        <v>67.93949910871699</v>
+        <v>69.03348808772516</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>606.3477736458386</v>
+        <v>605.2537846668305</v>
       </c>
       <c r="K4" t="n">
-        <v>67.93949910871699</v>
+        <v>69.03348808772493</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540588</v>
+        <v>359.523239123852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>606.3477736458386</v>
+        <v>605.2537846668305</v>
       </c>
       <c r="K4" t="n">
-        <v>67.93949910871699</v>
+        <v>69.03348808772516</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>351.1079387162401</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>160.9954970528022</v>
+        <v>161.1414521163178</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>179.8596132349054</v>
       </c>
       <c r="T2" t="n">
-        <v>217.4775260249106</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2432793912986</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>238.1929960783714</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>87.09742230638999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.75336669408779</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.4049747033761</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>56.59537734783871</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>61.19284986697441</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4169639186497</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.1236534153193</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.1882651555468</v>
       </c>
       <c r="J4" t="n">
-        <v>52.65622475280804</v>
+        <v>52.77628852217462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.95387533905993</v>
+        <v>38.09607765095856</v>
       </c>
       <c r="R4" t="n">
-        <v>151.4072119725565</v>
+        <v>151.4835698744836</v>
       </c>
       <c r="S4" t="n">
-        <v>213.9834791694747</v>
+        <v>214.013074417755</v>
       </c>
       <c r="T4" t="n">
-        <v>225.485721995979</v>
+        <v>225.4929780036429</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2876267935253</v>
+        <v>31.99835911642236</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>55.24826444856728</v>
+        <v>225.9851318754309</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>123.9453835684543</v>
+        <v>51.97117195339649</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>116.2452765144479</v>
       </c>
       <c r="H8" t="n">
-        <v>306.6884710724846</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>189.1839476287731</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>4.910330425104377</v>
       </c>
     </row>
     <row r="11">
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.343281041954469e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292584</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292703</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859227</v>
+        <v>41.57692977292584</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292584</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292527</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859261</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.283454834773454</v>
+        <v>1.279668956723639</v>
       </c>
       <c r="H2" t="n">
-        <v>13.14418182662364</v>
+        <v>13.10540970304597</v>
       </c>
       <c r="I2" t="n">
-        <v>49.48039251760365</v>
+        <v>49.33443745408815</v>
       </c>
       <c r="J2" t="n">
-        <v>108.9316247828536</v>
+        <v>108.6103031157231</v>
       </c>
       <c r="K2" t="n">
-        <v>163.2602679388139</v>
+        <v>162.7786900538348</v>
       </c>
       <c r="L2" t="n">
-        <v>202.5387988385121</v>
+        <v>201.9413588881659</v>
       </c>
       <c r="M2" t="n">
-        <v>225.3634387564145</v>
+        <v>224.6986716972999</v>
       </c>
       <c r="N2" t="n">
-        <v>229.0100548057146</v>
+        <v>228.334531120591</v>
       </c>
       <c r="O2" t="n">
-        <v>216.2477007924361</v>
+        <v>215.6098229321702</v>
       </c>
       <c r="P2" t="n">
-        <v>184.5624095589664</v>
+        <v>184.0179955630554</v>
       </c>
       <c r="Q2" t="n">
-        <v>138.598683288642</v>
+        <v>138.18985105039</v>
       </c>
       <c r="R2" t="n">
-        <v>80.62181976483808</v>
+        <v>80.38400510279138</v>
       </c>
       <c r="S2" t="n">
-        <v>29.24672704740012</v>
+        <v>29.16045635133996</v>
       </c>
       <c r="T2" t="n">
-        <v>5.6183235392208</v>
+        <v>5.601750858057733</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1026763867818763</v>
+        <v>0.1023735165378911</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6867088769261936</v>
+        <v>0.6846832535903893</v>
       </c>
       <c r="H3" t="n">
-        <v>6.63216204820824</v>
+        <v>6.612598791254549</v>
       </c>
       <c r="I3" t="n">
-        <v>23.64326615732729</v>
+        <v>23.57352430124805</v>
       </c>
       <c r="J3" t="n">
-        <v>64.87892946432956</v>
+        <v>64.68755248066043</v>
       </c>
       <c r="K3" t="n">
-        <v>110.8884242183845</v>
+        <v>110.5613304712165</v>
       </c>
       <c r="L3" t="n">
-        <v>149.1031708431194</v>
+        <v>148.6633529341764</v>
       </c>
       <c r="M3" t="n">
-        <v>173.9963676316939</v>
+        <v>173.483120876828</v>
       </c>
       <c r="N3" t="n">
-        <v>178.6015337405542</v>
+        <v>178.0747028713004</v>
       </c>
       <c r="O3" t="n">
-        <v>163.3855107307685</v>
+        <v>162.903563410166</v>
       </c>
       <c r="P3" t="n">
-        <v>131.1312766825115</v>
+        <v>130.7444714685016</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.6577857634208</v>
+        <v>87.39921672146794</v>
       </c>
       <c r="R3" t="n">
-        <v>42.63618799020703</v>
+        <v>42.51042165712962</v>
       </c>
       <c r="S3" t="n">
-        <v>12.75531620080012</v>
+        <v>12.71769113576884</v>
       </c>
       <c r="T3" t="n">
-        <v>2.767918674978823</v>
+        <v>2.759753991445471</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0451782155872496</v>
+        <v>0.04504495089410458</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5757136543686667</v>
+        <v>0.5740154398090263</v>
       </c>
       <c r="H4" t="n">
-        <v>5.118617763386878</v>
+        <v>5.103519092120256</v>
       </c>
       <c r="I4" t="n">
-        <v>17.31327971501409</v>
+        <v>17.26220977171145</v>
       </c>
       <c r="J4" t="n">
-        <v>40.70295536386474</v>
+        <v>40.58289159449816</v>
       </c>
       <c r="K4" t="n">
-        <v>66.88745911665055</v>
+        <v>66.69015746144868</v>
       </c>
       <c r="L4" t="n">
-        <v>85.59291912313797</v>
+        <v>85.34044093306197</v>
       </c>
       <c r="M4" t="n">
-        <v>90.24573220253563</v>
+        <v>89.97952935115489</v>
       </c>
       <c r="N4" t="n">
-        <v>88.09989039988886</v>
+        <v>87.84001725732132</v>
       </c>
       <c r="O4" t="n">
-        <v>81.37450816476395</v>
+        <v>81.13447325591585</v>
       </c>
       <c r="P4" t="n">
-        <v>69.62994961564308</v>
+        <v>69.42455828381166</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.20816791263445</v>
+        <v>48.06596560073583</v>
       </c>
       <c r="R4" t="n">
-        <v>25.88617940461296</v>
+        <v>25.80982150268585</v>
       </c>
       <c r="S4" t="n">
-        <v>10.03311886749758</v>
+        <v>10.0035236192173</v>
       </c>
       <c r="T4" t="n">
-        <v>2.459867432302485</v>
+        <v>2.452611424638566</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03140256296556368</v>
+        <v>0.03130993308049237</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.98233542824107</v>
+        <v>96.66101376111057</v>
       </c>
       <c r="K2" t="n">
-        <v>267.3158294649982</v>
+        <v>266.834251580019</v>
       </c>
       <c r="L2" t="n">
-        <v>384.4335984189753</v>
+        <v>383.836158468629</v>
       </c>
       <c r="M2" t="n">
-        <v>444.5307390219743</v>
+        <v>443.8659719628596</v>
       </c>
       <c r="N2" t="n">
-        <v>436.9439156211079</v>
+        <v>436.2683919359842</v>
       </c>
       <c r="O2" t="n">
-        <v>366.9496706334947</v>
+        <v>366.3117927732288</v>
       </c>
       <c r="P2" t="n">
-        <v>275.1281219751795</v>
+        <v>274.5837079792685</v>
       </c>
       <c r="Q2" t="n">
-        <v>128.6079840740972</v>
+        <v>128.1991518358452</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>64.1323381380717</v>
+        <v>63.94096115440257</v>
       </c>
       <c r="K3" t="n">
-        <v>43.17660378842136</v>
+        <v>41.64344354059551</v>
       </c>
       <c r="L3" t="n">
-        <v>381.3891363667044</v>
+        <v>380.9493184577614</v>
       </c>
       <c r="M3" t="n">
-        <v>497.5673974596755</v>
+        <v>497.0541507048096</v>
       </c>
       <c r="N3" t="n">
-        <v>526.6021960007745</v>
+        <v>526.0753651315206</v>
       </c>
       <c r="O3" t="n">
-        <v>414.6515855630536</v>
+        <v>414.1696382424511</v>
       </c>
       <c r="P3" t="n">
-        <v>315.6196379081184</v>
+        <v>315.2328326941085</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.7532994132484</v>
+        <v>157.4947303712955</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.61796729076769</v>
+        <v>44.42066563556583</v>
       </c>
       <c r="L4" t="n">
-        <v>113.1829443834541</v>
+        <v>112.9304661933781</v>
       </c>
       <c r="M4" t="n">
-        <v>129.8296091643762</v>
+        <v>129.5634063129955</v>
       </c>
       <c r="N4" t="n">
-        <v>132.2320627791175</v>
+        <v>131.9721896365499</v>
       </c>
       <c r="O4" t="n">
-        <v>105.9596360788036</v>
+        <v>105.7196011699555</v>
       </c>
       <c r="P4" t="n">
-        <v>66.90850888053657</v>
+        <v>66.70311754870515</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35422,7 +35422,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>575.5896386552618</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35431,7 +35431,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>575.5896386552618</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306773</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>575.5896386552618</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>800.2926980400168</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,22 +36595,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>654.7059126660149</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>682.3589740116442</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36832,19 +36832,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>488.1214627243436</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>895.850364009541</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165877</v>
+        <v>87.15534638599206</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>247.6245893172454</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>361.3343019431239</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>389.2103091664097</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>386.4338759404659</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>343.9300599955656</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>276.5340009180363</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>119.9711683108195</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>312.9588877240352</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>486.1751191683485</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37561,7 +37561,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165884</v>
+        <v>87.15534638599206</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>247.6245893172454</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>361.3343019431239</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>389.2103091664097</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>386.4338759404659</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412324</v>
+        <v>343.9300599955656</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>276.5340009180363</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>119.9711683108195</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>504.9282531982362</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37792,13 +37792,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>540.5843492202308</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165884</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412324</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564863</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>504.9282531982362</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>598.2166048051542</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38029,13 +38029,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165884</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
